--- a/biology/Botanique/Square_Cambronne/Square_Cambronne.xlsx
+++ b/biology/Botanique/Square_Cambronne/Square_Cambronne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Cambronne est un square du 15e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Près du boulevard Garibaldi, il est le pendant, à l'ouest de l'avenue de Lowendal qui les sépare, du square Garibaldi et est entouré sur les deux autres côtés par la rue Alexandre-Cabanel.
 Le square se trouve au 2, rue Alexandre-Cabanel.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il tient son nom de son voisinage avec la rue Cambronne qui porte le nom du général du Premier Empire Pierre Cambronne (1770-1842).
 </t>
@@ -576,7 +592,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été créé en 1881 avec une superficie de 1 740 m2. La rue Cambronne est une des voies convergeant vers la place Cambronne.
 </t>
@@ -607,7 +625,9 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est ombragé par des marronniers, des platanes et des peupliers d’Italie. On y trouve un groupe, Drame au désert (1892), en fonte de fer, dû au sculpteur Henri Amédée Fouques.
 </t>
